--- a/ref/ingestion/calibrated/panama/model_input_variables_panama_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/panama/model_input_variables_panama_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="K114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="L114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="M114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="N114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="O114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="P114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="Q114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="R114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="S114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="T114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="U114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="V114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="W114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="X114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="Y114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="Z114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AA114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AB114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AC114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AD114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AE114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AF114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AG114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AH114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AI114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AJ114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AK114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AL114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AM114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AN114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AO114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AP114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AQ114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AR114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
       <c r="AS114" t="n">
-        <v>64854962.88</v>
+        <v>1715.427119</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/panama/model_input_variables_panama_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/panama/model_input_variables_panama_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="K100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="L100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="M100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="N100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="O100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="P100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="Q100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="R100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="S100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="T100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="U100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="V100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="W100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="X100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="Y100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="Z100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AA100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AB100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AC100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AD100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AE100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AF100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AG100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AH100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AI100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AJ100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AK100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AL100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AM100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AN100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AO100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AP100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AQ100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AR100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
       <c r="AS100" t="n">
-        <v>32199.91448</v>
+        <v>3991.635443</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="K101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="L101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="M101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="N101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="O101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="P101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="Q101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="R101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="S101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="T101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="U101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="V101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="W101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="X101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="Y101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="Z101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AA101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AB101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AC101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AD101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AE101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AF101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AG101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AH101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AI101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AK101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AL101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AM101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AN101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AO101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AP101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AR101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
       <c r="AS101" t="n">
-        <v>1512057.682</v>
+        <v>151205.7682</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="K103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="L103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="M103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="N103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="O103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="P103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="Q103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="R103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="S103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="T103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="U103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="V103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="W103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="X103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="Y103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="Z103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AA103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AB103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AC103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AD103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AE103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AF103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AG103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AH103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AI103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AJ103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AK103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AL103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AM103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AN103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AO103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AP103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AQ103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AR103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
       <c r="AS103" t="n">
-        <v>30818.45931</v>
+        <v>31250.14823</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="K105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="L105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="M105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="N105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="O105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="P105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="Q105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="R105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="S105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="T105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="U105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="V105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="W105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="X105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="Y105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="Z105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AA105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AB105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AC105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AD105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AE105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AF105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AG105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AH105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AI105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AJ105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AK105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AL105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AM105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AN105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AO105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AP105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AQ105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AR105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AS105" t="n">
-        <v>283952.9869</v>
+        <v>73827.77658999999</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="K106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="L106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="M106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="N106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="O106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="P106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="Q106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="R106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="S106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="T106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="U106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="V106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="W106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="X106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="Y106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="Z106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AA106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AB106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AC106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AD106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AE106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AF106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AG106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AH106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AI106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AJ106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AK106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AL106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AM106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AN106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AO106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AP106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AQ106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AR106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
       <c r="AS106" t="n">
-        <v>207746.4339</v>
+        <v>44760.62646</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="K107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="L107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="M107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="N107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="O107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="P107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="Q107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="R107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="S107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="T107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="U107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="V107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="W107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="X107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="Y107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="Z107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AA107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AB107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AC107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AD107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AE107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AF107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AG107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AH107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AI107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AJ107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AK107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AL107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AM107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AN107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AO107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AP107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AQ107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AR107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
       <c r="AS107" t="n">
-        <v>42106.24721</v>
+        <v>84212.49442</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="K115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="L115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="M115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="N115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="O115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="P115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="Q115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="R115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="S115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="T115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="U115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="V115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="W115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="X115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="Y115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="Z115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AA115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AB115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AC115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AD115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AE115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AF115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AG115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AH115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AI115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AJ115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AK115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AL115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AM115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AN115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AO115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AP115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AQ115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AR115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
       <c r="AS115" t="n">
-        <v>38570.77218</v>
+        <v>385707.7218</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/panama/model_input_variables_panama_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/panama/model_input_variables_panama_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="K100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="L100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="M100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="N100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="O100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="P100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="Q100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="R100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="S100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="T100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="U100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="V100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="W100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="X100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="Y100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="Z100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AA100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AB100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AC100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AD100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AE100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AF100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AG100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AH100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AI100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AJ100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AK100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AL100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AM100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AN100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AO100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AP100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AQ100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AR100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
       <c r="AS100">
-        <v>1596447.188</v>
+        <v>3991.635443</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="K101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="L101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="M101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="N101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="O101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="P101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="Q101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="R101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="S101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="T101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="U101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="V101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="W101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="X101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="Y101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="Z101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AA101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AB101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AC101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AD101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AE101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AF101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AG101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AH101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AI101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AJ101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AK101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AL101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AM101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AN101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AO101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AP101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AQ101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AR101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
       <c r="AS101">
-        <v>245150.9376</v>
+        <v>151205.7682</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="K102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="L102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="M102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="N102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="O102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="P102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="Q102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="R102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="S102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="T102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="U102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="V102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="W102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="X102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="Y102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="Z102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AA102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AB102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AC102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AD102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AE102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AF102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AG102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AH102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AI102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AJ102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AK102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AL102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AM102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AN102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AO102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AP102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AQ102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AR102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
       <c r="AS102">
-        <v>193451.2059</v>
+        <v>406914.786</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="K103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="L103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="M103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="N103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="O103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="P103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="Q103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="R103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="S103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="T103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="U103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="V103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="W103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="X103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="Y103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="Z103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AA103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AB103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AC103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AD103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AE103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AF103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AG103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AH103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AI103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AJ103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AK103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AL103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AM103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AN103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AO103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AP103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AQ103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AR103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
       <c r="AS103">
-        <v>11799.55256</v>
+        <v>31250.14823</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="K104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="L104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="M104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="N104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="O104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="P104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="Q104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="R104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="S104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="T104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="U104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="V104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="W104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="X104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="Y104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="Z104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AA104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AB104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AC104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AD104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AE104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AF104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AG104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AH104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AI104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AJ104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AK104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AL104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AM104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AN104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AO104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AP104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AQ104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AR104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
       <c r="AS104">
-        <v>5399.296257</v>
+        <v>3070.488802</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="K105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="L105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="M105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="N105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="O105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="P105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="Q105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="R105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="S105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="T105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="U105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="V105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="W105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="X105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="Y105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="Z105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AA105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AB105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AC105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AD105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AE105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AF105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AG105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AH105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AI105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AJ105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AK105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AL105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AM105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AN105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AO105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AP105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AQ105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AR105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
       <c r="AS105">
-        <v>626682.3165</v>
+        <v>73827.77658999999</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="K106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="L106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="M106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="N106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="O106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="P106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="Q106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="R106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="S106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="T106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="U106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="V106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="W106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="X106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="Y106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="Z106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AA106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AB106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AC106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AD106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AE106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AF106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AG106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AH106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AI106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AJ106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AK106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AL106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AM106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AN106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AO106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AP106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AQ106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AR106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
       <c r="AS106">
-        <v>280315.0073</v>
+        <v>44760.62646</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="K107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="L107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="M107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="N107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="O107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="P107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="Q107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="R107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="S107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="T107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="U107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="V107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="W107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="X107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="Y107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="Z107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AA107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AB107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AC107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AD107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AE107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AF107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AG107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AH107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AI107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AJ107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AK107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AL107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AM107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AN107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AO107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AP107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AQ107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AR107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
       <c r="AS107">
-        <v>126989.9322</v>
+        <v>84212.49442</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="K114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="L114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="M114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="N114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="O114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="P114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="Q114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="R114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="S114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="T114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="U114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="V114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="W114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="X114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="Y114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="Z114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AA114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AB114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AC114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AD114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AE114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AF114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AG114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AH114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AI114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AJ114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AK114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AL114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AM114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AN114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AO114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AP114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AQ114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AR114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
       <c r="AS114">
-        <v>13207.59571</v>
+        <v>1715.427119</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="K115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="L115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="M115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="N115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="O115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="P115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="Q115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="R115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="S115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="T115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="U115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="V115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="W115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="X115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="Y115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="Z115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AA115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AB115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AC115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AD115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AE115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AF115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AG115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AH115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AI115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AJ115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AK115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AL115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AM115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AN115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AO115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AP115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AQ115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AR115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
       <c r="AS115">
-        <v>93695.63269</v>
+        <v>385707.7218</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/panama/model_input_variables_panama_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/panama/model_input_variables_panama_ip_calibrated.xlsx
@@ -1252,112 +1252,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.003434639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1374,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1.075328558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1496,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.978313605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1618,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.98610634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1740,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.06509988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1862,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.048632793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1984,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>1.00139761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2228,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.984535417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2350,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.014053165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2472,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.036632669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2594,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.944989374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3326,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.022625555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3448,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.965458833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>1596447.188</v>
+        <v>1576838.50847475</v>
       </c>
       <c r="K96">
-        <v>1596447.188</v>
+        <v>1719361.00059218</v>
       </c>
       <c r="L96">
-        <v>1596447.188</v>
+        <v>1953137.84616018</v>
       </c>
       <c r="M96">
-        <v>1596447.188</v>
+        <v>2068170.54492327</v>
       </c>
       <c r="N96">
-        <v>1596447.188</v>
+        <v>2155573.65045784</v>
       </c>
       <c r="O96">
-        <v>1596447.188</v>
+        <v>1596447.18846889</v>
       </c>
       <c r="P96">
-        <v>1596447.188</v>
+        <v>1596447</v>
       </c>
       <c r="Q96">
-        <v>1596447.188</v>
+        <v>1650514.26024171</v>
       </c>
       <c r="R96">
-        <v>1596447.188</v>
+        <v>1706412.62958385</v>
       </c>
       <c r="S96">
-        <v>1596447.188</v>
+        <v>1764204.12264529</v>
       </c>
       <c r="T96">
-        <v>1596447.188</v>
+        <v>1823952.85430914</v>
       </c>
       <c r="U96">
-        <v>1596447.188</v>
+        <v>1885725.11085292</v>
       </c>
       <c r="V96">
-        <v>1596447.188</v>
+        <v>1949589.42348768</v>
       </c>
       <c r="W96">
-        <v>1596447.188</v>
+        <v>2015616.64438771</v>
       </c>
       <c r="X96">
-        <v>1596447.188</v>
+        <v>2083880.02529522</v>
       </c>
       <c r="Y96">
-        <v>1596447.188</v>
+        <v>2154455.298787</v>
       </c>
       <c r="Z96">
-        <v>1596447.188</v>
+        <v>2227420.76229356</v>
       </c>
       <c r="AA96">
-        <v>1596447.188</v>
+        <v>2302857.36496357</v>
       </c>
       <c r="AB96">
-        <v>1596447.188</v>
+        <v>2380848.79747027</v>
       </c>
       <c r="AC96">
-        <v>1596447.188</v>
+        <v>2461481.58485939</v>
       </c>
       <c r="AD96">
-        <v>1596447.188</v>
+        <v>2544845.18254148</v>
       </c>
       <c r="AE96">
-        <v>1596447.188</v>
+        <v>2631032.07553532</v>
       </c>
       <c r="AF96">
-        <v>1596447.188</v>
+        <v>2720137.8810724</v>
       </c>
       <c r="AG96">
-        <v>1596447.188</v>
+        <v>2812261.45467634</v>
       </c>
       <c r="AH96">
-        <v>1596447.188</v>
+        <v>2907504.99983488</v>
       </c>
       <c r="AI96">
-        <v>1596447.188</v>
+        <v>3005974.18138626</v>
       </c>
       <c r="AJ96">
-        <v>1596447.188</v>
+        <v>3107778.24274557</v>
       </c>
       <c r="AK96">
-        <v>1596447.188</v>
+        <v>3213030.1271013</v>
       </c>
       <c r="AL96">
-        <v>1596447.188</v>
+        <v>3321846.60271649</v>
       </c>
       <c r="AM96">
-        <v>1596447.188</v>
+        <v>3434348.39247345</v>
       </c>
       <c r="AN96">
-        <v>1596447.188</v>
+        <v>3550660.30780579</v>
       </c>
       <c r="AO96">
-        <v>1596447.188</v>
+        <v>3670911.38716643</v>
       </c>
       <c r="AP96">
-        <v>1596447.188</v>
+        <v>3795235.03918507</v>
       </c>
       <c r="AQ96">
-        <v>1596447.188</v>
+        <v>3923769.19067402</v>
       </c>
       <c r="AR96">
-        <v>1596447.188</v>
+        <v>4056656.43964664</v>
       </c>
       <c r="AS96">
-        <v>1596447.188</v>
+        <v>4194044.21351799</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>245150.9376</v>
+        <v>491442.787335911</v>
       </c>
       <c r="K97">
-        <v>245150.9376</v>
+        <v>657447.610667842</v>
       </c>
       <c r="L97">
-        <v>245150.9376</v>
+        <v>621888.534085691</v>
       </c>
       <c r="M97">
-        <v>245150.9376</v>
+        <v>458692.122418468</v>
       </c>
       <c r="N97">
-        <v>245150.9376</v>
+        <v>287100.091807648</v>
       </c>
       <c r="O97">
-        <v>245150.9376</v>
+        <v>245150.937646115</v>
       </c>
       <c r="P97">
-        <v>245150.9376</v>
+        <v>245150.9</v>
       </c>
       <c r="Q97">
-        <v>245150.9376</v>
+        <v>241088.551505073</v>
       </c>
       <c r="R97">
-        <v>245150.9376</v>
+        <v>237093.519407084</v>
       </c>
       <c r="S97">
-        <v>245150.9376</v>
+        <v>233164.688218945</v>
       </c>
       <c r="T97">
-        <v>245150.9376</v>
+        <v>229300.960938089</v>
       </c>
       <c r="U97">
-        <v>245150.9376</v>
+        <v>225501.258740169</v>
       </c>
       <c r="V97">
-        <v>245150.9376</v>
+        <v>221764.520677827</v>
       </c>
       <c r="W97">
-        <v>245150.9376</v>
+        <v>218089.703384463</v>
       </c>
       <c r="X97">
-        <v>245150.9376</v>
+        <v>214475.780782902</v>
       </c>
       <c r="Y97">
-        <v>245150.9376</v>
+        <v>210921.743798898</v>
       </c>
       <c r="Z97">
-        <v>245150.9376</v>
+        <v>207426.600079381</v>
       </c>
       <c r="AA97">
-        <v>245150.9376</v>
+        <v>203989.373715373</v>
       </c>
       <c r="AB97">
-        <v>245150.9376</v>
+        <v>200609.104969495</v>
       </c>
       <c r="AC97">
-        <v>245150.9376</v>
+        <v>197284.850007994</v>
       </c>
       <c r="AD97">
-        <v>245150.9376</v>
+        <v>194015.680637203</v>
       </c>
       <c r="AE97">
-        <v>245150.9376</v>
+        <v>190800.684044374</v>
       </c>
       <c r="AF97">
-        <v>245150.9376</v>
+        <v>187638.962542806</v>
       </c>
       <c r="AG97">
-        <v>245150.9376</v>
+        <v>184529.63332119</v>
       </c>
       <c r="AH97">
-        <v>245150.9376</v>
+        <v>181471.828197115</v>
       </c>
       <c r="AI97">
-        <v>245150.9376</v>
+        <v>178464.693374651</v>
       </c>
       <c r="AJ97">
-        <v>245150.9376</v>
+        <v>175507.389205961</v>
       </c>
       <c r="AK97">
-        <v>245150.9376</v>
+        <v>172599.089956848</v>
       </c>
       <c r="AL97">
-        <v>245150.9376</v>
+        <v>169738.983576198</v>
       </c>
       <c r="AM97">
-        <v>245150.9376</v>
+        <v>166926.271469242</v>
       </c>
       <c r="AN97">
-        <v>245150.9376</v>
+        <v>164160.168274569</v>
       </c>
       <c r="AO97">
-        <v>245150.9376</v>
+        <v>161439.901644844</v>
       </c>
       <c r="AP97">
-        <v>245150.9376</v>
+        <v>158764.712031148</v>
       </c>
       <c r="AQ97">
-        <v>245150.9376</v>
+        <v>156133.852470904</v>
       </c>
       <c r="AR97">
-        <v>245150.9376</v>
+        <v>153546.588379309</v>
       </c>
       <c r="AS97">
-        <v>245150.9376</v>
+        <v>151002.19734422</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>193451.2059</v>
+        <v>149278.386793488</v>
       </c>
       <c r="K98">
-        <v>193451.2059</v>
+        <v>162200.625741418</v>
       </c>
       <c r="L98">
-        <v>193451.2059</v>
+        <v>178398.43325637</v>
       </c>
       <c r="M98">
-        <v>193451.2059</v>
+        <v>125544.438725365</v>
       </c>
       <c r="N98">
-        <v>193451.2059</v>
+        <v>159137.262982537</v>
       </c>
       <c r="O98">
-        <v>193451.2059</v>
+        <v>193451.205929232</v>
       </c>
       <c r="P98">
-        <v>193451.2059</v>
+        <v>193451.2</v>
       </c>
       <c r="Q98">
-        <v>193451.2059</v>
+        <v>207749.068118267</v>
       </c>
       <c r="R98">
-        <v>193451.2059</v>
+        <v>223103.683533669</v>
       </c>
       <c r="S98">
-        <v>193451.2059</v>
+        <v>239593.149837646</v>
       </c>
       <c r="T98">
-        <v>193451.2059</v>
+        <v>257301.343213644</v>
       </c>
       <c r="U98">
-        <v>193451.2059</v>
+        <v>276318.3390861</v>
       </c>
       <c r="V98">
-        <v>193451.2059</v>
+        <v>296740.870302819</v>
       </c>
       <c r="W98">
-        <v>193451.2059</v>
+        <v>318672.819181345</v>
       </c>
       <c r="X98">
-        <v>193451.2059</v>
+        <v>342225.745922204</v>
       </c>
       <c r="Y98">
-        <v>193451.2059</v>
+        <v>367519.456076865</v>
       </c>
       <c r="Z98">
-        <v>193451.2059</v>
+        <v>394682.609956935</v>
       </c>
       <c r="AA98">
-        <v>193451.2059</v>
+        <v>423853.377084447</v>
       </c>
       <c r="AB98">
-        <v>193451.2059</v>
+        <v>455180.139012187</v>
       </c>
       <c r="AC98">
-        <v>193451.2059</v>
+        <v>488822.244089079</v>
       </c>
       <c r="AD98">
-        <v>193451.2059</v>
+        <v>524950.818009846</v>
       </c>
       <c r="AE98">
-        <v>193451.2059</v>
+        <v>563749.634271938</v>
       </c>
       <c r="AF98">
-        <v>193451.2059</v>
+        <v>605416.048967435</v>
       </c>
       <c r="AG98">
-        <v>193451.2059</v>
+        <v>650162.004664886</v>
       </c>
       <c r="AH98">
-        <v>193451.2059</v>
+        <v>698215.108487487</v>
       </c>
       <c r="AI98">
-        <v>193451.2059</v>
+        <v>749819.789871401</v>
       </c>
       <c r="AJ98">
-        <v>193451.2059</v>
+        <v>805238.543893335</v>
       </c>
       <c r="AK98">
-        <v>193451.2059</v>
+        <v>864753.26649176</v>
       </c>
       <c r="AL98">
-        <v>193451.2059</v>
+        <v>928666.688373558</v>
       </c>
       <c r="AM98">
-        <v>193451.2059</v>
+        <v>997303.914899902</v>
       </c>
       <c r="AN98">
-        <v>193451.2059</v>
+        <v>1071014.07978423</v>
       </c>
       <c r="AO98">
-        <v>193451.2059</v>
+        <v>1150172.12101407</v>
       </c>
       <c r="AP98">
-        <v>193451.2059</v>
+        <v>1235180.68803028</v>
       </c>
       <c r="AQ98">
-        <v>193451.2059</v>
+        <v>1326472.18986479</v>
       </c>
       <c r="AR98">
-        <v>193451.2059</v>
+        <v>1424510.99465502</v>
       </c>
       <c r="AS98">
-        <v>193451.2059</v>
+        <v>1529795.79172321</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>11799.55256</v>
+        <v>13968.0408546468</v>
       </c>
       <c r="K99">
-        <v>11799.55256</v>
+        <v>13332.9497873922</v>
       </c>
       <c r="L99">
-        <v>11799.55256</v>
+        <v>14619.5041052135</v>
       </c>
       <c r="M99">
-        <v>11799.55256</v>
+        <v>10535.8068187571</v>
       </c>
       <c r="N99">
-        <v>11799.55256</v>
+        <v>11312.0508925034</v>
       </c>
       <c r="O99">
-        <v>11799.55256</v>
+        <v>11799.5525574343</v>
       </c>
       <c r="P99">
-        <v>11799.55256</v>
+        <v>11799.55</v>
       </c>
       <c r="Q99">
-        <v>11799.55256</v>
+        <v>12000.8230931785</v>
       </c>
       <c r="R99">
-        <v>11799.55256</v>
+        <v>12205.5294408486</v>
       </c>
       <c r="S99">
-        <v>11799.55256</v>
+        <v>12413.7276064092</v>
       </c>
       <c r="T99">
-        <v>11799.55256</v>
+        <v>12625.4771522154</v>
       </c>
       <c r="U99">
-        <v>11799.55256</v>
+        <v>12840.8386566185</v>
       </c>
       <c r="V99">
-        <v>11799.55256</v>
+        <v>13059.8737312971</v>
       </c>
       <c r="W99">
-        <v>11799.55256</v>
+        <v>13282.6450388824</v>
       </c>
       <c r="X99">
-        <v>11799.55256</v>
+        <v>13509.2163108858</v>
       </c>
       <c r="Y99">
-        <v>11799.55256</v>
+        <v>13739.652365931</v>
       </c>
       <c r="Z99">
-        <v>11799.55256</v>
+        <v>13974.019128298</v>
       </c>
       <c r="AA99">
-        <v>11799.55256</v>
+        <v>14212.3836467829</v>
       </c>
       <c r="AB99">
-        <v>11799.55256</v>
+        <v>14454.8141138792</v>
       </c>
       <c r="AC99">
-        <v>11799.55256</v>
+        <v>14701.3798852875</v>
       </c>
       <c r="AD99">
-        <v>11799.55256</v>
+        <v>14952.1514997561</v>
       </c>
       <c r="AE99">
-        <v>11799.55256</v>
+        <v>15207.200699262</v>
       </c>
       <c r="AF99">
-        <v>11799.55256</v>
+        <v>15466.6004495343</v>
       </c>
       <c r="AG99">
-        <v>11799.55256</v>
+        <v>15730.4249609295</v>
       </c>
       <c r="AH99">
-        <v>11799.55256</v>
+        <v>15998.7497096613</v>
       </c>
       <c r="AI99">
-        <v>11799.55256</v>
+        <v>16271.6514593934</v>
       </c>
       <c r="AJ99">
-        <v>11799.55256</v>
+        <v>16549.2082832006</v>
       </c>
       <c r="AK99">
-        <v>11799.55256</v>
+        <v>16831.499585904</v>
       </c>
       <c r="AL99">
-        <v>11799.55256</v>
+        <v>17118.606126788</v>
       </c>
       <c r="AM99">
-        <v>11799.55256</v>
+        <v>17410.6100427036</v>
       </c>
       <c r="AN99">
-        <v>11799.55256</v>
+        <v>17707.5948715673</v>
       </c>
       <c r="AO99">
-        <v>11799.55256</v>
+        <v>18009.6455762596</v>
       </c>
       <c r="AP99">
-        <v>11799.55256</v>
+        <v>18316.8485689315</v>
       </c>
       <c r="AQ99">
-        <v>11799.55256</v>
+        <v>18629.291735726</v>
       </c>
       <c r="AR99">
-        <v>11799.55256</v>
+        <v>18947.064461921</v>
       </c>
       <c r="AS99">
-        <v>11799.55256</v>
+        <v>19270.2576575007</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>5399.296257</v>
+        <v>38046.4694298103</v>
       </c>
       <c r="K100">
-        <v>5399.296257</v>
+        <v>4339.72541088302</v>
       </c>
       <c r="L100">
-        <v>5399.296257</v>
+        <v>17258.3663717593</v>
       </c>
       <c r="M100">
-        <v>5399.296257</v>
+        <v>7037.28116834879</v>
       </c>
       <c r="N100">
-        <v>5399.296257</v>
+        <v>7282.13082640179</v>
       </c>
       <c r="O100">
-        <v>5399.296257</v>
+        <v>5399.29625687067</v>
       </c>
       <c r="P100">
-        <v>5399.296257</v>
+        <v>5399.296</v>
       </c>
       <c r="Q100">
-        <v>5399.296257</v>
+        <v>8747.90990444314</v>
       </c>
       <c r="R100">
-        <v>5399.296257</v>
+        <v>14173.3158723386</v>
       </c>
       <c r="S100">
-        <v>5399.296257</v>
+        <v>22963.5290042317</v>
       </c>
       <c r="T100">
-        <v>5399.296257</v>
+        <v>37205.3843347513</v>
       </c>
       <c r="U100">
-        <v>5399.296257</v>
+        <v>60279.960594971</v>
       </c>
       <c r="V100">
-        <v>5399.296257</v>
+        <v>97665.2630876671</v>
       </c>
       <c r="W100">
-        <v>5399.296257</v>
+        <v>158236.726099967</v>
       </c>
       <c r="X100">
-        <v>5399.296257</v>
+        <v>256374.279812879</v>
       </c>
       <c r="Y100">
-        <v>5399.296257</v>
+        <v>415376.208605633</v>
       </c>
       <c r="Z100">
-        <v>5399.296257</v>
+        <v>672990.265644123</v>
       </c>
       <c r="AA100">
-        <v>5399.296257</v>
+        <v>1090375.15454275</v>
       </c>
       <c r="AB100">
-        <v>5399.296257</v>
+        <v>1766619.87303219</v>
       </c>
       <c r="AC100">
-        <v>5399.296257</v>
+        <v>2862267.87430887</v>
       </c>
       <c r="AD100">
-        <v>5399.296257</v>
+        <v>4637430.78483491</v>
       </c>
       <c r="AE100">
-        <v>5399.296257</v>
+        <v>7513540.04185486</v>
       </c>
       <c r="AF100">
-        <v>5399.296257</v>
+        <v>12173396.5593982</v>
       </c>
       <c r="AG100">
-        <v>5399.296257</v>
+        <v>19723270.6509651</v>
       </c>
       <c r="AH100">
-        <v>5399.296257</v>
+        <v>31955535.4393592</v>
       </c>
       <c r="AI100">
-        <v>5399.296257</v>
+        <v>51774184.0735817</v>
       </c>
       <c r="AJ100">
-        <v>5399.296257</v>
+        <v>83884250.4007463</v>
       </c>
       <c r="AK100">
-        <v>5399.296257</v>
+        <v>135908804.575166</v>
       </c>
       <c r="AL100">
-        <v>5399.296257</v>
+        <v>220198703.24652</v>
       </c>
       <c r="AM100">
-        <v>5399.296257</v>
+        <v>356764736.935291</v>
       </c>
       <c r="AN100">
-        <v>5399.296257</v>
+        <v>578028279.203859</v>
       </c>
       <c r="AO100">
-        <v>5399.296257</v>
+        <v>936518262.509717</v>
       </c>
       <c r="AP100">
-        <v>5399.296257</v>
+        <v>1517341776.46505</v>
       </c>
       <c r="AQ100">
-        <v>5399.296257</v>
+        <v>2458388863.05991</v>
       </c>
       <c r="AR100">
-        <v>5399.296257</v>
+        <v>3983068215.58487</v>
       </c>
       <c r="AS100">
-        <v>5399.296257</v>
+        <v>6453345379.32121</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>626682.3165</v>
+        <v>576801.291414735</v>
       </c>
       <c r="K101">
-        <v>626682.3165</v>
+        <v>594330.591812207</v>
       </c>
       <c r="L101">
-        <v>626682.3165</v>
+        <v>740953.662869596</v>
       </c>
       <c r="M101">
-        <v>626682.3165</v>
+        <v>592843.099160531</v>
       </c>
       <c r="N101">
-        <v>626682.3165</v>
+        <v>682571.330767703</v>
       </c>
       <c r="O101">
-        <v>626682.3165</v>
+        <v>626682.316451324</v>
       </c>
       <c r="P101">
-        <v>626682.3165</v>
+        <v>626682.3</v>
       </c>
       <c r="Q101">
-        <v>626682.3165</v>
+        <v>677352.657885515</v>
       </c>
       <c r="R101">
-        <v>626682.3165</v>
+        <v>732119.964365631</v>
       </c>
       <c r="S101">
-        <v>626682.3165</v>
+        <v>791315.477960857</v>
       </c>
       <c r="T101">
-        <v>626682.3165</v>
+        <v>855297.241078506</v>
       </c>
       <c r="U101">
-        <v>626682.3165</v>
+        <v>924452.245622183</v>
       </c>
       <c r="V101">
-        <v>626682.3165</v>
+        <v>999198.773701473</v>
       </c>
       <c r="W101">
-        <v>626682.3165</v>
+        <v>1079988.92759958</v>
       </c>
       <c r="X101">
-        <v>626682.3165</v>
+        <v>1167311.36430134</v>
       </c>
       <c r="Y101">
-        <v>626682.3165</v>
+        <v>1261694.25112131</v>
       </c>
       <c r="Z101">
-        <v>626682.3165</v>
+        <v>1363708.46030899</v>
       </c>
       <c r="AA101">
-        <v>626682.3165</v>
+        <v>1473971.02195364</v>
       </c>
       <c r="AB101">
-        <v>626682.3165</v>
+        <v>1593148.85607353</v>
       </c>
       <c r="AC101">
-        <v>626682.3165</v>
+        <v>1721962.80646297</v>
       </c>
       <c r="AD101">
-        <v>626682.3165</v>
+        <v>1861192.00069588</v>
       </c>
       <c r="AE101">
-        <v>626682.3165</v>
+        <v>2011678.56265705</v>
       </c>
       <c r="AF101">
-        <v>626682.3165</v>
+        <v>2174332.70610494</v>
       </c>
       <c r="AG101">
-        <v>626682.3165</v>
+        <v>2350138.24007409</v>
       </c>
       <c r="AH101">
-        <v>626682.3165</v>
+        <v>2540158.51941657</v>
       </c>
       <c r="AI101">
-        <v>626682.3165</v>
+        <v>2745542.87647401</v>
       </c>
       <c r="AJ101">
-        <v>626682.3165</v>
+        <v>2967533.57278212</v>
       </c>
       <c r="AK101">
-        <v>626682.3165</v>
+        <v>3207473.3128548</v>
       </c>
       <c r="AL101">
-        <v>626682.3165</v>
+        <v>3466813.36549486</v>
       </c>
       <c r="AM101">
-        <v>626682.3165</v>
+        <v>3747122.3417527</v>
       </c>
       <c r="AN101">
-        <v>626682.3165</v>
+        <v>4050095.68262641</v>
       </c>
       <c r="AO101">
-        <v>626682.3165</v>
+        <v>4377565.91388914</v>
       </c>
       <c r="AP101">
-        <v>626682.3165</v>
+        <v>4731513.73007</v>
       </c>
       <c r="AQ101">
-        <v>626682.3165</v>
+        <v>5114079.97462944</v>
       </c>
       <c r="AR101">
-        <v>626682.3165</v>
+        <v>5527578.58879107</v>
       </c>
       <c r="AS101">
-        <v>626682.3165</v>
+        <v>5974510.60735032</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13208,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>191434.378778765</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>133233.686848126</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>55895.0242847869</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>18848.3868351293</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>9824757.751247119</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>16271627.6493505</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>16271630</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>860479819.4747781</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>45504077939.5393</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>2406356386593.17</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>127253453349644</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>6729444349818896</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>3.558679160783354E+17</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>1.881908328692033E+19</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>9.95194789299536E+20</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>5.26281038002157E+22</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>2.7830906465615E+24</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>1.4717599509915E+26</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>7.7829924656557E+27</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>4.1158187297898E+29</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>2.17653606774517E+31</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>1.15100046071212E+33</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>6.08674526552624E+34</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>3.21880565577571E+36</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>1.70217569451019E+38</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>9.001481930983431E+39</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>4.7601829361767E+41</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>2.51729012618173E+43</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>1.33119875104246E+45</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>7.03967372034678E+46</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>3.72273532033689E+48</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>1.96866485803565E+50</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>1.04107356278926E+52</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>5.505427491707119E+53</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>2.91139194671684E+55</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>1.53960851907967E+57</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>280315.0073</v>
+        <v>229832.642106438</v>
       </c>
       <c r="K103">
-        <v>280315.0073</v>
+        <v>226122.850329768</v>
       </c>
       <c r="L103">
-        <v>280315.0073</v>
+        <v>269041.90415781</v>
       </c>
       <c r="M103">
-        <v>280315.0073</v>
+        <v>208986.945754385</v>
       </c>
       <c r="N103">
-        <v>280315.0073</v>
+        <v>241903.203940146</v>
       </c>
       <c r="O103">
-        <v>280315.0073</v>
+        <v>280315.007306205</v>
       </c>
       <c r="P103">
-        <v>280315.0073</v>
+        <v>280315</v>
       </c>
       <c r="Q103">
-        <v>280315.0073</v>
+        <v>310164.8753735</v>
       </c>
       <c r="R103">
-        <v>280315.0073</v>
+        <v>343193.37144091</v>
       </c>
       <c r="S103">
-        <v>280315.0073</v>
+        <v>379738.969666201</v>
       </c>
       <c r="T103">
-        <v>280315.0073</v>
+        <v>420176.195355149</v>
       </c>
       <c r="U103">
-        <v>280315.0073</v>
+        <v>464919.455852313</v>
       </c>
       <c r="V103">
-        <v>280315.0073</v>
+        <v>514427.287455713</v>
       </c>
       <c r="W103">
-        <v>280315.0073</v>
+        <v>569207.054572281</v>
       </c>
       <c r="X103">
-        <v>280315.0073</v>
+        <v>629820.149271814</v>
       </c>
       <c r="Y103">
-        <v>280315.0073</v>
+        <v>696887.744525307</v>
       </c>
       <c r="Z103">
-        <v>280315.0073</v>
+        <v>771097.160087798</v>
       </c>
       <c r="AA103">
-        <v>280315.0073</v>
+        <v>853208.906264352</v>
       </c>
       <c r="AB103">
-        <v>280315.0073</v>
+        <v>944064.477744833</v>
       </c>
       <c r="AC103">
-        <v>280315.0073</v>
+        <v>1044594.97738</v>
       </c>
       <c r="AD103">
-        <v>280315.0073</v>
+        <v>1155830.65827677</v>
       </c>
       <c r="AE103">
-        <v>280315.0073</v>
+        <v>1278911.48200162</v>
       </c>
       <c r="AF103">
-        <v>280315.0073</v>
+        <v>1415098.80109438</v>
       </c>
       <c r="AG103">
-        <v>280315.0073</v>
+        <v>1565788.28561663</v>
       </c>
       <c r="AH103">
-        <v>280315.0073</v>
+        <v>1732524.22620826</v>
       </c>
       <c r="AI103">
-        <v>280315.0073</v>
+        <v>1917015.36023208</v>
       </c>
       <c r="AJ103">
-        <v>280315.0073</v>
+        <v>2121152.38319557</v>
       </c>
       <c r="AK103">
-        <v>280315.0073</v>
+        <v>2347027.32490968</v>
       </c>
       <c r="AL103">
-        <v>280315.0073</v>
+        <v>2596954.98895461</v>
       </c>
       <c r="AM103">
-        <v>280315.0073</v>
+        <v>2873496.67516792</v>
       </c>
       <c r="AN103">
-        <v>280315.0073</v>
+        <v>3179486.42826686</v>
       </c>
       <c r="AO103">
-        <v>280315.0073</v>
+        <v>3518060.08160507</v>
       </c>
       <c r="AP103">
-        <v>280315.0073</v>
+        <v>3892687.39370894</v>
       </c>
       <c r="AQ103">
-        <v>280315.0073</v>
+        <v>4307207.60693408</v>
       </c>
       <c r="AR103">
-        <v>280315.0073</v>
+        <v>4765868.79265291</v>
       </c>
       <c r="AS103">
-        <v>280315.0073</v>
+        <v>5273371.38618926</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>126989.9322</v>
+        <v>108458.563421183</v>
       </c>
       <c r="K104">
-        <v>126989.9322</v>
+        <v>111895.836041248</v>
       </c>
       <c r="L104">
-        <v>126989.9322</v>
+        <v>133718.832536193</v>
       </c>
       <c r="M104">
-        <v>126989.9322</v>
+        <v>107188.728806798</v>
       </c>
       <c r="N104">
-        <v>126989.9322</v>
+        <v>117757.073493069</v>
       </c>
       <c r="O104">
-        <v>126989.9322</v>
+        <v>126989.932241238</v>
       </c>
       <c r="P104">
-        <v>126989.9322</v>
+        <v>126989.9</v>
       </c>
       <c r="Q104">
-        <v>126989.9322</v>
+        <v>140129.518196228</v>
       </c>
       <c r="R104">
-        <v>126989.9322</v>
+        <v>154628.689918702</v>
       </c>
       <c r="S104">
-        <v>126989.9322</v>
+        <v>170628.087884325</v>
       </c>
       <c r="T104">
-        <v>126989.9322</v>
+        <v>188282.940186379</v>
       </c>
       <c r="U104">
-        <v>126989.9322</v>
+        <v>207764.536336248</v>
       </c>
       <c r="V104">
-        <v>126989.9322</v>
+        <v>229261.889134971</v>
       </c>
       <c r="W104">
-        <v>126989.9322</v>
+        <v>252983.568498287</v>
       </c>
       <c r="X104">
-        <v>126989.9322</v>
+        <v>279159.725027167</v>
       </c>
       <c r="Y104">
-        <v>126989.9322</v>
+        <v>308044.322956774</v>
       </c>
       <c r="Z104">
-        <v>126989.9322</v>
+        <v>339917.604148172</v>
       </c>
       <c r="AA104">
-        <v>126989.9322</v>
+        <v>375088.807028744</v>
       </c>
       <c r="AB104">
-        <v>126989.9322</v>
+        <v>413899.166860797</v>
       </c>
       <c r="AC104">
-        <v>126989.9322</v>
+        <v>456725.226447329</v>
       </c>
       <c r="AD104">
-        <v>126989.9322</v>
+        <v>503982.489395829</v>
       </c>
       <c r="AE104">
-        <v>126989.9322</v>
+        <v>556129.451384505</v>
       </c>
       <c r="AF104">
-        <v>126989.9322</v>
+        <v>613672.0485427839</v>
       </c>
       <c r="AG104">
-        <v>126989.9322</v>
+        <v>677168.566104806</v>
       </c>
       <c r="AH104">
-        <v>126989.9322</v>
+        <v>747235.0549602529</v>
       </c>
       <c r="AI104">
-        <v>126989.9322</v>
+        <v>824551.308654565</v>
       </c>
       <c r="AJ104">
-        <v>126989.9322</v>
+        <v>909867.458828092</v>
       </c>
       <c r="AK104">
-        <v>126989.9322</v>
+        <v>1004011.25308396</v>
       </c>
       <c r="AL104">
-        <v>126989.9322</v>
+        <v>1107896.08589539</v>
       </c>
       <c r="AM104">
-        <v>126989.9322</v>
+        <v>1222529.86046928</v>
       </c>
       <c r="AN104">
-        <v>126989.9322</v>
+        <v>1349024.76754499</v>
       </c>
       <c r="AO104">
-        <v>126989.9322</v>
+        <v>1488608.07600335</v>
       </c>
       <c r="AP104">
-        <v>126989.9322</v>
+        <v>1642634.0399777</v>
       </c>
       <c r="AQ104">
-        <v>126989.9322</v>
+        <v>1812597.0379912</v>
       </c>
       <c r="AR104">
-        <v>126989.9322</v>
+        <v>2000146.07159795</v>
       </c>
       <c r="AS104">
-        <v>126989.9322</v>
+        <v>2207100.76419542</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>13207.59571</v>
+        <v>13377.3492492891</v>
       </c>
       <c r="K111">
-        <v>13207.59571</v>
+        <v>14760.0253506722</v>
       </c>
       <c r="L111">
-        <v>13207.59571</v>
+        <v>12823.9272212965</v>
       </c>
       <c r="M111">
-        <v>13207.59571</v>
+        <v>10159.2198462738</v>
       </c>
       <c r="N111">
-        <v>13207.59571</v>
+        <v>12172.214748983</v>
       </c>
       <c r="O111">
-        <v>13207.59571</v>
+        <v>13207.5957145271</v>
       </c>
       <c r="P111">
-        <v>13207.59571</v>
+        <v>13207.6</v>
       </c>
       <c r="Q111">
-        <v>13207.59571</v>
+        <v>14132.6503798094</v>
       </c>
       <c r="R111">
-        <v>13207.59571</v>
+        <v>15122.4905931377</v>
       </c>
       <c r="S111">
-        <v>13207.59571</v>
+        <v>16181.6584712417</v>
       </c>
       <c r="T111">
-        <v>13207.59571</v>
+        <v>17315.0096716692</v>
       </c>
       <c r="U111">
-        <v>13207.59571</v>
+        <v>18527.7399385747</v>
       </c>
       <c r="V111">
-        <v>13207.59571</v>
+        <v>19825.4089221287</v>
       </c>
       <c r="W111">
-        <v>13207.59571</v>
+        <v>21213.9656662223</v>
       </c>
       <c r="X111">
-        <v>13207.59571</v>
+        <v>22699.7758813107</v>
       </c>
       <c r="Y111">
-        <v>13207.59571</v>
+        <v>24289.6511274261</v>
       </c>
       <c r="Z111">
-        <v>13207.59571</v>
+        <v>25990.8800411472</v>
       </c>
       <c r="AA111">
-        <v>13207.59571</v>
+        <v>27811.2617496819</v>
       </c>
       <c r="AB111">
-        <v>13207.59571</v>
+        <v>29759.1416252475</v>
       </c>
       <c r="AC111">
-        <v>13207.59571</v>
+        <v>31843.4495436608</v>
       </c>
       <c r="AD111">
-        <v>13207.59571</v>
+        <v>34073.7408225309</v>
       </c>
       <c r="AE111">
-        <v>13207.59571</v>
+        <v>36460.2400267321</v>
       </c>
       <c r="AF111">
-        <v>13207.59571</v>
+        <v>39013.88784198</v>
       </c>
       <c r="AG111">
-        <v>13207.59571</v>
+        <v>41746.391231397</v>
       </c>
       <c r="AH111">
-        <v>13207.59571</v>
+        <v>44670.2771050057</v>
       </c>
       <c r="AI111">
-        <v>13207.59571</v>
+        <v>47798.9497481941</v>
       </c>
       <c r="AJ111">
-        <v>13207.59571</v>
+        <v>51146.7522724267</v>
       </c>
       <c r="AK111">
-        <v>13207.59571</v>
+        <v>54729.0323699179</v>
       </c>
       <c r="AL111">
-        <v>13207.59571</v>
+        <v>58562.212673712</v>
       </c>
       <c r="AM111">
-        <v>13207.59571</v>
+        <v>62663.8660457322</v>
       </c>
       <c r="AN111">
-        <v>13207.59571</v>
+        <v>67052.79613794629</v>
       </c>
       <c r="AO111">
-        <v>13207.59571</v>
+        <v>71749.1235959771</v>
       </c>
       <c r="AP111">
-        <v>13207.59571</v>
+        <v>76774.3783003479</v>
       </c>
       <c r="AQ111">
-        <v>13207.59571</v>
+        <v>82151.5980682364</v>
       </c>
       <c r="AR111">
-        <v>13207.59571</v>
+        <v>87905.4342682249</v>
       </c>
       <c r="AS111">
-        <v>13207.59571</v>
+        <v>94062.264832228</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>93695.63269</v>
+        <v>125644.633578378</v>
       </c>
       <c r="K112">
-        <v>93695.63269</v>
+        <v>113460.619671016</v>
       </c>
       <c r="L112">
-        <v>93695.63269</v>
+        <v>116236.155446259</v>
       </c>
       <c r="M112">
-        <v>93695.63269</v>
+        <v>66681.0151655206</v>
       </c>
       <c r="N112">
-        <v>93695.63269</v>
+        <v>78379.3990400741</v>
       </c>
       <c r="O112">
-        <v>93695.63269</v>
+        <v>93695.6326936207</v>
       </c>
       <c r="P112">
-        <v>93695.63269</v>
+        <v>93695.63</v>
       </c>
       <c r="Q112">
-        <v>93695.63269</v>
+        <v>95492.6949996215</v>
       </c>
       <c r="R112">
-        <v>93695.63269</v>
+        <v>97324.2273763539</v>
       </c>
       <c r="S112">
-        <v>93695.63269</v>
+        <v>99190.8882081691</v>
       </c>
       <c r="T112">
-        <v>93695.63269</v>
+        <v>101093.351252393</v>
       </c>
       <c r="U112">
-        <v>93695.63269</v>
+        <v>103032.303188893</v>
       </c>
       <c r="V112">
-        <v>93695.63269</v>
+        <v>105008.443867932</v>
       </c>
       <c r="W112">
-        <v>93695.63269</v>
+        <v>107022.48656277</v>
       </c>
       <c r="X112">
-        <v>93695.63269</v>
+        <v>109075.15822712</v>
       </c>
       <c r="Y112">
-        <v>93695.63269</v>
+        <v>111167.199757532</v>
       </c>
       <c r="Z112">
-        <v>93695.63269</v>
+        <v>113299.366260817</v>
       </c>
       <c r="AA112">
-        <v>93695.63269</v>
+        <v>115472.427326596</v>
       </c>
       <c r="AB112">
-        <v>93695.63269</v>
+        <v>117687.167305077</v>
       </c>
       <c r="AC112">
-        <v>93695.63269</v>
+        <v>119944.385590161</v>
       </c>
       <c r="AD112">
-        <v>93695.63269</v>
+        <v>122244.89690798</v>
       </c>
       <c r="AE112">
-        <v>93695.63269</v>
+        <v>124589.531610961</v>
       </c>
       <c r="AF112">
-        <v>93695.63269</v>
+        <v>126979.13597754</v>
       </c>
       <c r="AG112">
-        <v>93695.63269</v>
+        <v>129414.572517615</v>
       </c>
       <c r="AH112">
-        <v>93695.63269</v>
+        <v>131896.72028387</v>
       </c>
       <c r="AI112">
-        <v>93695.63269</v>
+        <v>134426.475189057</v>
       </c>
       <c r="AJ112">
-        <v>93695.63269</v>
+        <v>137004.750329367</v>
       </c>
       <c r="AK112">
-        <v>93695.63269</v>
+        <v>139632.476314013</v>
       </c>
       <c r="AL112">
-        <v>93695.63269</v>
+        <v>142310.60160112</v>
       </c>
       <c r="AM112">
-        <v>93695.63269</v>
+        <v>145040.092840065</v>
       </c>
       <c r="AN112">
-        <v>93695.63269</v>
+        <v>147821.935220384</v>
       </c>
       <c r="AO112">
-        <v>93695.63269</v>
+        <v>150657.132827368</v>
       </c>
       <c r="AP112">
-        <v>93695.63269</v>
+        <v>153546.709004479</v>
       </c>
       <c r="AQ112">
-        <v>93695.63269</v>
+        <v>156491.706722719</v>
       </c>
       <c r="AR112">
-        <v>93695.63269</v>
+        <v>159493.188957081</v>
       </c>
       <c r="AS112">
-        <v>93695.63269</v>
+        <v>162552.239070227</v>
       </c>
     </row>
     <row r="113" spans="1:45">
